--- a/data/Erick PaezT3-2025.xlsx
+++ b/data/Erick PaezT3-2025.xlsx
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>88.64864069000001</v>
+        <v>1.748489659999999</v>
       </c>
     </row>
   </sheetData>
